--- a/assignment3/q1/cv_3.xlsx
+++ b/assignment3/q1/cv_3.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -606,15 +607,6 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
@@ -623,15 +615,6 @@
       <c r="B2">
         <v>1840</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
@@ -640,16 +623,6 @@
       <c r="B3">
         <v>1267</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>PRODUCT(7,9.6)</f>
-        <v>67.200000000000003</v>
-      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
@@ -658,16 +631,6 @@
       <c r="B4">
         <v>937</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>PRODUCT(9.6,11)</f>
-        <v>105.59999999999999</v>
-      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="2">
@@ -676,16 +639,6 @@
       <c r="B5">
         <v>1749</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>PRODUCT(2,32)</f>
-        <v>64</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
@@ -694,16 +647,6 @@
       <c r="B6">
         <v>1606</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>PRODUCT(5,32)</f>
-        <v>160</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="2">
@@ -712,16 +655,6 @@
       <c r="B7">
         <v>1659</v>
       </c>
-      <c r="C7">
-        <f>16+PRODUCT(32,2)</f>
-        <v>80</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="2">
@@ -730,16 +663,6 @@
       <c r="B8">
         <v>1418</v>
       </c>
-      <c r="C8">
-        <f>16+PRODUCT(6,32)</f>
-        <v>208</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="2">
@@ -748,16 +671,6 @@
       <c r="B9">
         <v>1494</v>
       </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>PRODUCT(4,9.6)</f>
-        <v>38.399999999999999</v>
-      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
@@ -766,17 +679,6 @@
       <c r="B10">
         <v>1372</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f>16+PRODUCT(3,32)</f>
-        <v>112</v>
-      </c>
-      <c r="E10">
-        <f>PRODUCT(4,9.6)</f>
-        <v>38.399999999999999</v>
-      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
@@ -785,17 +687,6 @@
       <c r="B11">
         <v>1097</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f>16+PRODUCT(2,32)</f>
-        <v>80</v>
-      </c>
-      <c r="E11">
-        <f>PRODUCT(8,9.6)</f>
-        <v>76.799999999999997</v>
-      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12">
@@ -804,17 +695,6 @@
       <c r="B12">
         <v>985</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>16+PRODUCT(5,32)</f>
-        <v>176</v>
-      </c>
-      <c r="E12">
-        <f>PRODUCT(8,9.6)</f>
-        <v>76.799999999999997</v>
-      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13">
@@ -823,17 +703,6 @@
       <c r="B13">
         <v>901</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>PRODUCT(1,32)</f>
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <f>PRODUCT(11,9.6)</f>
-        <v>105.59999999999999</v>
-      </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14">
@@ -842,17 +711,6 @@
       <c r="B14">
         <v>827</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>PRODUCT(3,32)</f>
-        <v>96</v>
-      </c>
-      <c r="E14">
-        <f>PRODUCT(11,9.6)</f>
-        <v>105.59999999999999</v>
-      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15">
@@ -861,17 +719,6 @@
       <c r="B15">
         <v>771</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>PRODUCT(5,32)</f>
-        <v>160</v>
-      </c>
-      <c r="E15">
-        <f>PRODUCT(11,9.6)</f>
-        <v>105.59999999999999</v>
-      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16">
@@ -880,17 +727,6 @@
       <c r="B16">
         <v>1611</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>16+PRODUCT(1,32)</f>
-        <v>48</v>
-      </c>
-      <c r="E16">
-        <f>PRODUCT(9.6,2)</f>
-        <v>19.199999999999999</v>
-      </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17">
@@ -899,17 +735,6 @@
       <c r="B17">
         <v>1530</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>16+PRODUCT(3,32)</f>
-        <v>112</v>
-      </c>
-      <c r="E17" s="3">
-        <f>PRODUCT(9.6,2)</f>
-        <v>19.199999999999999</v>
-      </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18">
@@ -918,17 +743,6 @@
       <c r="B18">
         <v>1443</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f>16+PRODUCT(5,32)</f>
-        <v>176</v>
-      </c>
-      <c r="E18" s="3">
-        <f>PRODUCT(9.6,2)</f>
-        <v>19.199999999999999</v>
-      </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19">
@@ -937,16 +751,6 @@
       <c r="B19">
         <v>1661</v>
       </c>
-      <c r="C19">
-        <f>16+32</f>
-        <v>48</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20">
@@ -955,16 +759,6 @@
       <c r="B20">
         <v>1536</v>
       </c>
-      <c r="C20">
-        <f>16+PRODUCT(3,32)</f>
-        <v>112</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21">
@@ -973,16 +767,6 @@
       <c r="B21">
         <v>1419</v>
       </c>
-      <c r="C21">
-        <f>16+PRODUCT(5,32)</f>
-        <v>176</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22">
@@ -991,16 +775,6 @@
       <c r="B22">
         <v>1302</v>
       </c>
-      <c r="C22">
-        <f>16+PRODUCT(7,32)</f>
-        <v>240</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23">
@@ -1009,17 +783,6 @@
       <c r="B23">
         <v>1233</v>
       </c>
-      <c r="C23">
-        <f>PRODUCT(2,32)</f>
-        <v>64</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f>PRODUCT(6,9.6)</f>
-        <v>57.599999999999994</v>
-      </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24">
@@ -1028,17 +791,6 @@
       <c r="B24">
         <v>1129</v>
       </c>
-      <c r="C24">
-        <f>PRODUCT(4,32)</f>
-        <v>128</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f>PRODUCT(6,9.6)</f>
-        <v>57.599999999999994</v>
-      </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25">
@@ -1047,17 +799,6 @@
       <c r="B25">
         <v>1020</v>
       </c>
-      <c r="C25">
-        <f>PRODUCT(6,32)</f>
-        <v>192</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f>PRODUCT(6,9.6)</f>
-        <v>57.599999999999994</v>
-      </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26">
@@ -1066,17 +807,6 @@
       <c r="B26">
         <v>684</v>
       </c>
-      <c r="C26">
-        <f>16+PRODUCT(3,32)</f>
-        <v>112</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>PRODUCT(13,9.6)</f>
-        <v>124.8</v>
-      </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27">
@@ -1085,17 +815,6 @@
       <c r="B27">
         <v>561</v>
       </c>
-      <c r="C27">
-        <f>16+PRODUCT(6,32)</f>
-        <v>208</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f>PRODUCT(13,9.6)</f>
-        <v>124.8</v>
-      </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28">
@@ -1104,17 +823,6 @@
       <c r="B28">
         <v>745</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <f>PRODUCT(3,32)</f>
-        <v>96</v>
-      </c>
-      <c r="E28">
-        <f>PRODUCT(13,9.6)</f>
-        <v>124.8</v>
-      </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29">
@@ -1123,14 +831,382 @@
       <c r="B29">
         <v>653</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>PRODUCT(7,9.6)</f>
+        <v>67.200000000000003</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>PRODUCT(9.6,11)</f>
+        <v>105.59999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f>PRODUCT(2,32)</f>
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>PRODUCT(5,32)</f>
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>16+PRODUCT(32,2)</f>
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <f>16+PRODUCT(6,32)</f>
+        <v>208</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>PRODUCT(4,9.6)</f>
+        <v>38.399999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>16+PRODUCT(3,32)</f>
+        <v>112</v>
+      </c>
+      <c r="C10">
+        <f>PRODUCT(4,9.6)</f>
+        <v>38.399999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>16+PRODUCT(2,32)</f>
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f>PRODUCT(8,9.6)</f>
+        <v>76.799999999999997</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>16+PRODUCT(5,32)</f>
+        <v>176</v>
+      </c>
+      <c r="C12">
+        <f>PRODUCT(8,9.6)</f>
+        <v>76.799999999999997</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>PRODUCT(1,32)</f>
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <f>PRODUCT(11,9.6)</f>
+        <v>105.59999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>PRODUCT(3,32)</f>
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <f>PRODUCT(11,9.6)</f>
+        <v>105.59999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f>PRODUCT(5,32)</f>
+        <v>160</v>
+      </c>
+      <c r="C15">
+        <f>PRODUCT(11,9.6)</f>
+        <v>105.59999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>16+PRODUCT(1,32)</f>
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <f>PRODUCT(9.6,2)</f>
+        <v>19.199999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>16+PRODUCT(3,32)</f>
+        <v>112</v>
+      </c>
+      <c r="C17" s="3">
+        <f>PRODUCT(9.6,2)</f>
+        <v>19.199999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f>16+PRODUCT(5,32)</f>
+        <v>176</v>
+      </c>
+      <c r="C18" s="3">
+        <f>PRODUCT(9.6,2)</f>
+        <v>19.199999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <f>16+32</f>
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <f>16+PRODUCT(3,32)</f>
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <f>16+PRODUCT(5,32)</f>
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <f>16+PRODUCT(7,32)</f>
+        <v>240</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <f>PRODUCT(2,32)</f>
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>PRODUCT(6,9.6)</f>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <f>PRODUCT(4,32)</f>
+        <v>128</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>PRODUCT(6,9.6)</f>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
         <f>PRODUCT(6,32)</f>
         <v>192</v>
       </c>
-      <c r="E29">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>PRODUCT(6,9.6)</f>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <f>16+PRODUCT(3,32)</f>
+        <v>112</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>PRODUCT(13,9.6)</f>
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <f>16+PRODUCT(6,32)</f>
+        <v>208</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>PRODUCT(13,9.6)</f>
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f>PRODUCT(3,32)</f>
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <f>PRODUCT(13,9.6)</f>
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f>PRODUCT(6,32)</f>
+        <v>192</v>
+      </c>
+      <c r="C29">
         <f>PRODUCT(13,9.6)</f>
         <v>124.8</v>
       </c>

--- a/assignment3/q1/cv_3.xlsx
+++ b/assignment3/q1/cv_3.xlsx
@@ -3,11 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -38,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -51,6 +53,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.500000"/>
+      <color theme="1" tint="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,13 +80,17 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +858,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -951,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f>PRODUCT(4,9.6)</f>
+        <f t="shared" ref="C9:C10" si="0">PRODUCT(4,9.6)</f>
         <v>38.399999999999999</v>
       </c>
     </row>
@@ -964,7 +975,7 @@
         <v>112</v>
       </c>
       <c r="C10">
-        <f>PRODUCT(4,9.6)</f>
+        <f t="shared" si="0"/>
         <v>38.399999999999999</v>
       </c>
     </row>
@@ -977,7 +988,7 @@
         <v>80</v>
       </c>
       <c r="C11">
-        <f>PRODUCT(8,9.6)</f>
+        <f t="shared" ref="C11:C12" si="1">PRODUCT(8,9.6)</f>
         <v>76.799999999999997</v>
       </c>
     </row>
@@ -990,7 +1001,7 @@
         <v>176</v>
       </c>
       <c r="C12">
-        <f>PRODUCT(8,9.6)</f>
+        <f t="shared" si="1"/>
         <v>76.799999999999997</v>
       </c>
     </row>
@@ -1003,7 +1014,7 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <f>PRODUCT(11,9.6)</f>
+        <f t="shared" ref="C13:C15" si="2">PRODUCT(11,9.6)</f>
         <v>105.59999999999999</v>
       </c>
     </row>
@@ -1016,7 +1027,7 @@
         <v>96</v>
       </c>
       <c r="C14">
-        <f>PRODUCT(11,9.6)</f>
+        <f t="shared" si="2"/>
         <v>105.59999999999999</v>
       </c>
     </row>
@@ -1029,7 +1040,7 @@
         <v>160</v>
       </c>
       <c r="C15">
-        <f>PRODUCT(11,9.6)</f>
+        <f t="shared" si="2"/>
         <v>105.59999999999999</v>
       </c>
     </row>
@@ -1042,7 +1053,7 @@
         <v>48</v>
       </c>
       <c r="C16">
-        <f>PRODUCT(9.6,2)</f>
+        <f t="shared" ref="C16:C18" si="3">PRODUCT(9.6,2)</f>
         <v>19.199999999999999</v>
       </c>
     </row>
@@ -1055,7 +1066,7 @@
         <v>112</v>
       </c>
       <c r="C17" s="3">
-        <f>PRODUCT(9.6,2)</f>
+        <f t="shared" si="3"/>
         <v>19.199999999999999</v>
       </c>
     </row>
@@ -1068,7 +1079,7 @@
         <v>176</v>
       </c>
       <c r="C18" s="3">
-        <f>PRODUCT(9.6,2)</f>
+        <f t="shared" si="3"/>
         <v>19.199999999999999</v>
       </c>
     </row>
@@ -1129,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f>PRODUCT(6,9.6)</f>
+        <f t="shared" ref="C23:C25" si="4">PRODUCT(6,9.6)</f>
         <v>57.599999999999994</v>
       </c>
     </row>
@@ -1142,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f>PRODUCT(6,9.6)</f>
+        <f t="shared" si="4"/>
         <v>57.599999999999994</v>
       </c>
     </row>
@@ -1155,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f>PRODUCT(6,9.6)</f>
+        <f t="shared" si="4"/>
         <v>57.599999999999994</v>
       </c>
     </row>
@@ -1168,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <f>PRODUCT(13,9.6)</f>
+        <f t="shared" ref="C26:C29" si="5">PRODUCT(13,9.6)</f>
         <v>124.8</v>
       </c>
     </row>
@@ -1181,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f>PRODUCT(13,9.6)</f>
+        <f t="shared" si="5"/>
         <v>124.8</v>
       </c>
     </row>
@@ -1194,7 +1205,7 @@
         <v>96</v>
       </c>
       <c r="C28">
-        <f>PRODUCT(13,9.6)</f>
+        <f t="shared" si="5"/>
         <v>124.8</v>
       </c>
     </row>
@@ -1207,7 +1218,476 @@
         <v>192</v>
       </c>
       <c r="C29">
-        <f>PRODUCT(13,9.6)</f>
+        <f t="shared" si="5"/>
+        <v>124.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="14.25">
+      <c r="A2" s="4">
+        <v>240</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="4">
+        <v>242</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="4">
+        <v>240</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="4">
+        <v>242</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4">
+        <v>245</v>
+      </c>
+      <c r="B6" s="5">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4">
+        <v>245</v>
+      </c>
+      <c r="B7" s="5">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="4">
+        <v>250</v>
+      </c>
+      <c r="B8" s="5">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4">
+        <v>988</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4">
+        <v>991</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="4">
+        <v>988</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="4">
+        <v>991</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="4">
+        <v>993</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="4">
+        <v>998</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="4">
+        <v>998</v>
+      </c>
+      <c r="B15" s="5">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="4">
+        <v>2424</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="4">
+        <v>2421</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="4">
+        <v>2424</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="4">
+        <v>2434</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="4">
+        <v>2439</v>
+      </c>
+      <c r="B20" s="5">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="4">
+        <v>2439</v>
+      </c>
+      <c r="B21" s="5">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="4">
+        <v>2447</v>
+      </c>
+      <c r="B22" s="5">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>PRODUCT(32,6)</f>
+        <v>192</v>
+      </c>
+      <c r="C2">
+        <f>PRODUCT(9.6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>PRODUCT(32,6)</f>
+        <v>192</v>
+      </c>
+      <c r="C3">
+        <f>PRODUCT(9.6,2)</f>
+        <v>19.199999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>PRODUCT(32,6)</f>
+        <v>192</v>
+      </c>
+      <c r="C4">
+        <f>PRODUCT(9.6,4)</f>
+        <v>38.399999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f>PRODUCT(32,6)</f>
+        <v>192</v>
+      </c>
+      <c r="C5">
+        <f>PRODUCT(9.6,6)</f>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>PRODUCT(32,6)</f>
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <f>PRODUCT(9.6,8)</f>
+        <v>76.799999999999997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>PRODUCT(32,6)</f>
+        <v>192</v>
+      </c>
+      <c r="C7">
+        <f>PRODUCT(9.6,10)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f>PRODUCT(32,6)</f>
+        <v>192</v>
+      </c>
+      <c r="C8">
+        <f>PRODUCT(9.6,13)</f>
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <f>PRODUCT(9.6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <f>PRODUCT(9.6,2)</f>
+        <v>19.199999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <f>PRODUCT(9.6,4)</f>
+        <v>38.399999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <f>PRODUCT(9.6,6)</f>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <f>PRODUCT(9.6,8)</f>
+        <v>76.799999999999997</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <f>PRODUCT(9.6,10)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <f>PRODUCT(9.6,13)</f>
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <f>PRODUCT(7,32)+16</f>
+        <v>240</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <f>PRODUCT(9.6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <f>PRODUCT(7,32)+16</f>
+        <v>240</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <f>PRODUCT(9.6,2)</f>
+        <v>19.199999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <f>PRODUCT(7,32)+16</f>
+        <v>240</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <f>PRODUCT(9.6,4)</f>
+        <v>38.399999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <f>PRODUCT(7,32)+16</f>
+        <v>240</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <f>PRODUCT(9.6,6)</f>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <f>PRODUCT(7,32)+16</f>
+        <v>240</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <f>PRODUCT(9.6,8)</f>
+        <v>76.799999999999997</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <f>PRODUCT(7,32)+16</f>
+        <v>240</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <f>PRODUCT(9.6,10)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <f>PRODUCT(7,32)+16</f>
+        <v>240</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <f>PRODUCT(9.6,13)</f>
         <v>124.8</v>
       </c>
     </row>
